--- a/data_gravity.xlsx
+++ b/data_gravity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SD\Solar-system-influence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3F7BBC-3992-439B-A898-BEDDE88EC03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2430D398-5221-4DB0-8C5D-4244F4BC49FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Object1</t>
   </si>
@@ -92,13 +92,22 @@
     <t>Jupiter</t>
   </si>
   <si>
-    <t>Proxima Centauria</t>
-  </si>
-  <si>
-    <t>Sagitarius A</t>
-  </si>
-  <si>
     <t>Nr</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Venus</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>Uran</t>
+  </si>
+  <si>
+    <t>Neptun</t>
   </si>
 </sst>
 </file>
@@ -134,8 +143,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,22 +426,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -505,14 +516,14 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:F12" si="0">6*10^24</f>
+        <f t="shared" ref="E3:F10" si="0">6*10^24</f>
         <v>5.9999999999999999E+24</v>
       </c>
       <c r="F3">
         <v>0.2</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G10" si="1">6.6743*10^-11</f>
+        <f t="shared" ref="G3:G9" si="1">6.6743*10^-11</f>
         <v>6.6742999999999994E-11</v>
       </c>
       <c r="H3">
@@ -709,198 +720,261 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
       <c r="E10">
+        <v>80</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>5.9999999999999999E+24</v>
       </c>
-      <c r="F10">
-        <f>F7*0.1221</f>
-        <v>2.4278364000000001E+29</v>
-      </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>6.6742999999999994E-11</v>
+        <f>6.6743*10^-11</f>
+        <v>6.6742999999999994E-11</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10" si="3">6.4*10^6</f>
+        <v>6400000</v>
       </c>
       <c r="J10">
-        <v>4.01702628796496E+16</v>
+        <f>H10+I10</f>
+        <v>6400000</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>5.9999999999999999E+24</v>
+        <v>80</v>
       </c>
       <c r="F11">
-        <f>F7*4310000</f>
-        <v>8.5700040000000001E+36</v>
+        <f>3.3011*10^23</f>
+        <v>3.3010999999999995E+23</v>
       </c>
       <c r="G11">
-        <f>6.6743*10^-11</f>
+        <f t="shared" ref="G11:G15" si="4">6.6743*10^-11</f>
         <v>6.6742999999999994E-11</v>
       </c>
       <c r="J11">
-        <v>2.5231768982577801E+20</v>
+        <f>77000000*1000</f>
+        <v>77000000000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>80</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>5.9999999999999999E+24</v>
+        <f>4.867*10^24</f>
+        <v>4.8670000000000001E+24</v>
       </c>
       <c r="G12">
-        <f>6.6743*10^-11</f>
-        <v>6.6742999999999994E-11</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ref="I12" si="3">6.4*10^6</f>
-        <v>6400000</v>
+        <f t="shared" si="4"/>
+        <v>6.6742999999999994E-11</v>
       </c>
       <c r="J12">
-        <f>H12+I12</f>
-        <v>6400000</v>
+        <f>61000000*1000</f>
+        <v>61000000000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>80</v>
+      </c>
+      <c r="F13">
+        <f>5.6834*10^26</f>
+        <v>5.6834000000000003E+26</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>6.6742999999999994E-11</v>
+      </c>
+      <c r="J13" s="1">
+        <f>1200000000000</f>
+        <v>1200000000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>80</v>
+      </c>
+      <c r="F14">
+        <f>8.6813*10^25</f>
+        <v>8.6813000000000017E+25</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>6.6742999999999994E-11</v>
+      </c>
+      <c r="J14">
+        <f>2600000000000</f>
+        <v>2600000000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>80</v>
+      </c>
+      <c r="F15">
+        <f>1.02413*10^26</f>
+        <v>1.0241300000000001E+26</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>6.6742999999999994E-11</v>
+      </c>
+      <c r="J15">
+        <f>4300000000000</f>
+        <v>4300000000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="D13">
+      <c r="D16">
         <v>1.23E-2</v>
       </c>
-      <c r="E13">
-        <v>80</v>
-      </c>
-      <c r="F13">
+      <c r="E16">
+        <v>80</v>
+      </c>
+      <c r="F16">
         <f>7.3477*10^22</f>
         <v>7.3477000000000001E+22</v>
       </c>
-      <c r="G13">
-        <f t="shared" ref="G13:G16" si="4">6.6743*10^-11</f>
-        <v>6.6742999999999994E-11</v>
-      </c>
-      <c r="J13">
+      <c r="G16">
+        <f t="shared" ref="G16:G19" si="5">6.6743*10^-11</f>
+        <v>6.6742999999999994E-11</v>
+      </c>
+      <c r="J16">
         <f>384400*1000</f>
         <v>384400000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D14">
+      <c r="D17">
         <v>330000</v>
       </c>
-      <c r="E14">
-        <v>80</v>
-      </c>
-      <c r="F14">
+      <c r="E17">
+        <v>80</v>
+      </c>
+      <c r="F17">
         <f>1.9884*10^30</f>
         <v>1.9884E+30</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
-        <v>6.6742999999999994E-11</v>
-      </c>
-      <c r="J14">
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>6.6742999999999994E-11</v>
+      </c>
+      <c r="J17">
         <f>1.5*10^11</f>
         <v>150000000000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="D15">
+      <c r="D18">
         <v>0.107</v>
       </c>
-      <c r="E15">
-        <v>80</v>
-      </c>
-      <c r="F15">
+      <c r="E18">
+        <v>80</v>
+      </c>
+      <c r="F18">
         <f>6.4171+10^23</f>
         <v>9.9999999999999992E+22</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="4"/>
-        <v>6.6742999999999994E-11</v>
-      </c>
-      <c r="J15">
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>6.6742999999999994E-11</v>
+      </c>
+      <c r="J18">
         <f>56000000*1000</f>
         <v>56000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="D16">
+      <c r="D19">
         <v>317.83</v>
       </c>
-      <c r="E16">
-        <v>80</v>
-      </c>
-      <c r="F16">
+      <c r="E19">
+        <v>80</v>
+      </c>
+      <c r="F19">
         <f>1.8986+10^27</f>
         <v>1E+27</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>6.6742999999999994E-11</v>
-      </c>
-      <c r="J16">
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>6.6742999999999994E-11</v>
+      </c>
+      <c r="J19">
         <f>630000000*1000</f>
         <v>630000000000</v>
       </c>
